--- a/biology/Zoologie/Catharus/Catharus.xlsx
+++ b/biology/Zoologie/Catharus/Catharus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Catharus forme avec la Grive des bois (Hylocichla mustelina), seule espèce du genre Hylocichla (parfois appelée Catharus mustelinus), le groupe des grives américaines.
 Les 12 espèces de ce genre sont réparties du nord-est de l'Asie et du nord de l'Amérique du nord jusqu'en Amérique du sud. La grive à joues grises (Catharus minimus) est parfois observée en Europe occidentale (France comprise).
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 2.2, 2009) du Congrès ornithologique international (ordre phylogénique) :
 Catharus gracilirostris – Grive à bec noir
